--- a/data.xlsx
+++ b/data.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh</t>
+          <t>Smart Watches</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
